--- a/trunk/Document/Sprint-Backlog.xlsx
+++ b/trunk/Document/Sprint-Backlog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -103,6 +103,33 @@
   </si>
   <si>
     <t>Item 5</t>
+  </si>
+  <si>
+    <t>Design homepage template</t>
+  </si>
+  <si>
+    <t>Design login page</t>
+  </si>
+  <si>
+    <t>Create suitable database for authentication</t>
+  </si>
+  <si>
+    <t>Defind site's most advantage features</t>
+  </si>
+  <si>
+    <t>Design register page</t>
+  </si>
+  <si>
+    <t>Create suitable database for register</t>
+  </si>
+  <si>
+    <t>Show website builder processes</t>
+  </si>
+  <si>
+    <t>Code business logic</t>
+  </si>
+  <si>
+    <t>Sprint start: 13/1/2015</t>
   </si>
 </sst>
 </file>
@@ -547,7 +574,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +584,8 @@
     <col min="3" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12" style="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -597,19 +625,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -617,19 +645,19 @@
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
+      <c r="B7" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -643,19 +671,19 @@
         <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -669,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -694,6 +722,9 @@
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -747,7 +778,7 @@
     <mergeCell ref="A13:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -761,10 +792,10 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="8" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" style="6" customWidth="1"/>
@@ -774,7 +805,7 @@
     <col min="10" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -814,13 +845,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -834,19 +865,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
@@ -860,13 +891,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>24</v>
       </c>
@@ -874,7 +905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="6" t="s">
         <v>13</v>
@@ -886,7 +917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>25</v>
       </c>
@@ -894,21 +925,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:10" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="5" t="s">
         <v>9</v>
@@ -938,15 +967,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
     </row>
-    <row r="41" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>16</v>
       </c>
@@ -963,10 +992,62 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -1140,74 +1221,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1227,18 +1260,14 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trunk/Document/Sprint-Backlog.xlsx
+++ b/trunk/Document/Sprint-Backlog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Task 3</t>
   </si>
   <si>
-    <t>Task 4</t>
-  </si>
-  <si>
     <t>Some sprint goal</t>
   </si>
   <si>
@@ -130,6 +127,12 @@
   </si>
   <si>
     <t>Sprint start: 13/1/2015</t>
+  </si>
+  <si>
+    <t>Code server side</t>
+  </si>
+  <si>
+    <t>Code client validate</t>
   </si>
 </sst>
 </file>
@@ -216,7 +219,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -241,11 +244,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -571,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -621,161 +630,142 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="4" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="6" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="4" t="s">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ref="E16:J16" si="0">SUM(E2:E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" ref="E19:J19" si="0">SUM(E2:E8)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -838,101 +828,101 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>21</v>
+      <c r="A2" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>22</v>
+      <c r="A5" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>23</v>
+      <c r="A8" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>24</v>
+      <c r="A11" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>25</v>
+      <c r="A14" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
@@ -977,7 +967,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Document/Sprint-Backlog.xlsx
+++ b/trunk/Document/Sprint-Backlog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Code client validate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -247,14 +250,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -583,7 +586,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -630,7 +633,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -638,19 +641,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -658,25 +661,25 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -684,19 +687,19 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="6" t="s">
         <v>35</v>
       </c>
@@ -705,7 +708,7 @@
       <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -748,7 +751,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
@@ -782,17 +790,19 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="8" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12" style="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -828,7 +838,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -836,19 +846,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -856,19 +866,19 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -876,19 +886,19 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -896,19 +906,19 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -916,13 +926,13 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
@@ -982,62 +992,7 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -1211,26 +1166,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1250,6 +1244,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
